--- a/analyses/grad-learn-compare/Grad analysis - size 30.xlsx
+++ b/analyses/grad-learn-compare/Grad analysis - size 30.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Files\Programming\thesis\analyses\grad-learn-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{52C4EC27-F325-4B30-B91B-3A6129DD32E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEB1B9A-3CF6-43F6-8DA9-39E9D610231B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="wandb_export_2021-01-25T13_31_0" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1923,7 +1933,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4236,16 +4246,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>420687</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>341311</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>547687</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500061</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>55563</xdr:rowOff>
+      <xdr:rowOff>87313</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4274,7 +4284,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Matthew A. Robinson" refreshedDate="44221.569661805559" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="595">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Matthew A. Robinson" refreshedDate="44221.569661805559" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="595" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="wandb_export_2021-01-25T13_31_0"/>
   </cacheSource>
@@ -9105,7 +9115,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:F32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -9624,11 +9634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F32"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F30"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10171,10 +10181,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -10799,7 +10809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F595"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/analyses/grad-learn-compare/Grad analysis - size 30.xlsx
+++ b/analyses/grad-learn-compare/Grad analysis - size 30.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Files\Programming\thesis\analyses\grad-learn-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEB1B9A-3CF6-43F6-8DA9-39E9D610231B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC34D93-7E4B-4106-B087-4AB2A05984F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="wandb_export_2021-01-25T13_31_0" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="wandb_export_2021-01-25T13_31_0" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="659">
   <si>
     <t>Name</t>
   </si>
@@ -1928,12 +1930,99 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Arch</t>
+  </si>
+  <si>
+    <t>Arctic</t>
+  </si>
+  <si>
+    <t>Baboon</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>Boat</t>
+  </si>
+  <si>
+    <t>Bonito</t>
+  </si>
+  <si>
+    <t>Cathedral</t>
+  </si>
+  <si>
+    <t>Corrosion</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>Fontaine</t>
+  </si>
+  <si>
+    <t>Kid</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Machine</t>
+  </si>
+  <si>
+    <t>Newyork</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Peppers</t>
+  </si>
+  <si>
+    <t>Pills</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Stress</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Waterfall</t>
+  </si>
+  <si>
+    <t>Wildflowers</t>
+  </si>
+  <si>
+    <t>Non Gradual</t>
+  </si>
+  <si>
+    <t>Gradual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2373,7 +2462,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2416,8 +2505,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -2425,8 +2515,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2466,6 +2558,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -3699,7 +3792,761 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non Gradual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Arch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arctic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baboon</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Beach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bear</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Boat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bonito</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cathedral</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Corrosion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>F16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Fontaine</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kid</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Lake</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Lena</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Machine</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Newyork</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Opera</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Peppers</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Pills</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Rose</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Stress</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Watch</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Waterfall</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Wildflowers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>177.27339564050894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>177.83028461251891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.16592168807938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.171921858420646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123.79130711922241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>134.71268956477769</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105.83707431646459</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.9629148046171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>142.53958113988199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.92591303586957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>146.68818090178698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99.723907318981958</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>110.64781245318301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>171.25890718806849</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>124.84736347198431</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>98.938726620240445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>177.04817702553439</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>135.8689066930246</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>131.091635487296</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>160.545362645929</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>173.21354478055744</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115.88945263082306</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>87.032181371341991</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>98.910360748117313</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.785452127456523</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>154.13890641385808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3362-4E66-91E3-DA7D0DD825D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gradual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$2:$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Arch</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Arctic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baboon</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Beach</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bear</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Boat</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bonito</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cathedral</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Corrosion</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>F15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>F16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Fontaine</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kid</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Lake</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Lena</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Machine</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Newyork</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Opera</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Peppers</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Pills</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Rose</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Stress</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Watch</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Waterfall</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Wildflowers</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>120.7764973402019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>170.31629817485779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101.15589852333052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.570298075675922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>116.70659849643657</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107.66739845275848</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.203197050094573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.105199575424052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.466194629669047</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49.454298925399748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121.93819921016646</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>75.645798826217586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.921299791335898</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>147.57339940071057</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.291998910903885</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.291399884223893</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>115.99229745864825</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.65799906253811</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>88.963697814941341</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>121.89829852580979</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100.67399868965131</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>73.506297636032073</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>61.109299826621964</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72.743998527526813</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>88.69459853172296</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>110.6940975666042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3362-4E66-91E3-DA7D0DD825D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1391058304"/>
+        <c:axId val="1395199344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1391058304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1395199344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1395199344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Training Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1391058304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4242,20 +5089,489 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>341311</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>166689</xdr:rowOff>
+      <xdr:colOff>166685</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>500061</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>87313</xdr:rowOff>
+      <xdr:colOff>436562</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4263,6 +5579,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573E01C5-6429-4405-9D20-F4A6D8A3C8B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F84A84D-6599-43FA-AB05-6232FFA8270B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9115,7 +10472,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A3:F32" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -9276,7 +10633,7 @@
   <dataFields count="1">
     <dataField name="Average of total_seconds" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="4">
+  <chartFormats count="8">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -9314,6 +10671,54 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="11" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -9637,8 +11042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10181,10 +11586,419 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260CD9A4-F8A6-433B-81F5-8CE67B7F1C3C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3503270C-CC50-417C-9291-07FE9AE13A46}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="C2" s="5">
+        <v>177.27339564050894</v>
+      </c>
+      <c r="D2" s="5">
+        <v>120.7764973402019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C3" s="5">
+        <v>177.83028461251891</v>
+      </c>
+      <c r="D3" s="5">
+        <v>170.31629817485779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C4" s="5">
+        <v>125.16592168807938</v>
+      </c>
+      <c r="D4" s="5">
+        <v>101.15589852333052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C5" s="5">
+        <v>82.171921858420646</v>
+      </c>
+      <c r="D5" s="5">
+        <v>55.570298075675922</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C6" s="5">
+        <v>123.79130711922241</v>
+      </c>
+      <c r="D6" s="5">
+        <v>116.70659849643657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C7" s="5">
+        <v>134.71268956477769</v>
+      </c>
+      <c r="D7" s="5">
+        <v>107.66739845275848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C8" s="5">
+        <v>105.83707431646459</v>
+      </c>
+      <c r="D8" s="5">
+        <v>81.203197050094573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C9" s="5">
+        <v>137.9629148046171</v>
+      </c>
+      <c r="D9" s="5">
+        <v>97.105199575424052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C10" s="5">
+        <v>142.53958113988199</v>
+      </c>
+      <c r="D10" s="5">
+        <v>92.466194629669047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C11" s="5">
+        <v>68.92591303586957</v>
+      </c>
+      <c r="D11" s="5">
+        <v>49.454298925399748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C12" s="5">
+        <v>146.68818090178698</v>
+      </c>
+      <c r="D12" s="5">
+        <v>121.93819921016646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C13" s="5">
+        <v>99.723907318981958</v>
+      </c>
+      <c r="D13" s="5">
+        <v>75.645798826217586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C14" s="5">
+        <v>110.64781245318301</v>
+      </c>
+      <c r="D14" s="5">
+        <v>97.921299791335898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C15" s="5">
+        <v>171.25890718806849</v>
+      </c>
+      <c r="D15" s="5">
+        <v>147.57339940071057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="C16" s="5">
+        <v>124.84736347198431</v>
+      </c>
+      <c r="D16" s="5">
+        <v>87.291998910903885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C17" s="5">
+        <v>98.938726620240445</v>
+      </c>
+      <c r="D17" s="5">
+        <v>76.291399884223893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="C18" s="5">
+        <v>177.04817702553439</v>
+      </c>
+      <c r="D18" s="5">
+        <v>115.99229745864825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C19" s="5">
+        <v>135.8689066930246</v>
+      </c>
+      <c r="D19" s="5">
+        <v>79.65799906253811</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C20" s="5">
+        <v>131.091635487296</v>
+      </c>
+      <c r="D20" s="5">
+        <v>88.963697814941341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C21" s="5">
+        <v>160.545362645929</v>
+      </c>
+      <c r="D21" s="5">
+        <v>121.89829852580979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C22" s="5">
+        <v>173.21354478055744</v>
+      </c>
+      <c r="D22" s="5">
+        <v>100.67399868965131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C23" s="5">
+        <v>115.88945263082306</v>
+      </c>
+      <c r="D23" s="5">
+        <v>73.506297636032073</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C24" s="5">
+        <v>87.032181371341991</v>
+      </c>
+      <c r="D24" s="5">
+        <v>61.109299826621964</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C25" s="5">
+        <v>98.910360748117313</v>
+      </c>
+      <c r="D25" s="5">
+        <v>72.743998527526813</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C26" s="5">
+        <v>97.785452127456523</v>
+      </c>
+      <c r="D26" s="5">
+        <v>88.69459853172296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C27" s="5">
+        <v>154.13890641385808</v>
+      </c>
+      <c r="D27" s="5">
+        <v>110.6940975666042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -10808,12 +12622,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F595"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView topLeftCell="A564" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
